--- a/Excel/4_2 DATA afr/BegrootArtikels.xlsx
+++ b/Excel/4_2 DATA afr/BegrootArtikels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Excel\4_2 DATA afr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Skool Werk\Excel\4_2 DATA afr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="KosteU">#REF!</definedName>
     <definedName name="KosteV">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,12 +735,21 @@
       <c r="B3" s="11">
         <v>432</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <f>B3*0.5</f>
+        <v>216</v>
+      </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="13">
+        <f>D3*350</f>
+        <v>350</v>
+      </c>
+      <c r="F3" s="8">
+        <f>C3+E3</f>
+        <v>566</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -749,12 +758,21 @@
       <c r="B4" s="11">
         <v>509</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C9" si="0">B4*0.5</f>
+        <v>254.5</v>
+      </c>
       <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E9" si="1">D4*350</f>
+        <v>700</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F9" si="2">C4+E4</f>
+        <v>954.5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -763,12 +781,21 @@
       <c r="B5" s="11">
         <v>447</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>223.5</v>
+      </c>
       <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="2"/>
+        <v>573.5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -777,12 +804,21 @@
       <c r="B6" s="11">
         <v>203</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>101.5</v>
+      </c>
       <c r="D6" s="11">
         <v>2.5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>976.5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -791,12 +827,21 @@
       <c r="B7" s="11">
         <v>443</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>221.5</v>
+      </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>571.5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -805,12 +850,21 @@
       <c r="B8" s="11">
         <v>112</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -819,12 +873,21 @@
       <c r="B9" s="11">
         <v>455</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>227.5</v>
+      </c>
       <c r="D9" s="11">
         <v>2.5</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>1102.5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
@@ -833,25 +896,37 @@
       <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <f>SUM(F3:F9)</f>
+        <v>5150.5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <f>SUM(C3:C9)*25/100</f>
+        <v>325.125</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <f>SUM(E3:E9)*10/100</f>
+        <v>385</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <f>F11-(F12+F13)</f>
+        <v>4440.375</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="19" t="s">
@@ -865,7 +940,10 @@
       <c r="E16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <f>F15-F14</f>
+        <v>559.625</v>
+      </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17"/>
